--- a/Back_end_python/db/idiomas.xlsx
+++ b/Back_end_python/db/idiomas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manrique\Desktop\Proyecto Python\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\Documents\GitHub\Proyecto_python\Back_end_python\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E101E82-4225-440C-9844-73BBDF34DF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE242AEB-DB67-4988-9DB1-3C68BBF15E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Población con segundo idioma" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Censo de Población y Vivienda El Salvador 2024</t>
   </si>
@@ -269,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -301,14 +301,20 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,13 +322,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -658,31 +657,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FA2CD3-2CEB-413E-817B-9D3397961C2C}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="2"/>
-    <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.375" style="2"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -696,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickTop="1">
+    <row r="3" spans="1:4" ht="16.5" thickTop="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -710,7 +708,7 @@
         <v>332072</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -724,7 +722,7 @@
         <v>524220</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,7 +736,7 @@
         <v>448543</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -752,7 +750,7 @@
         <v>177762</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -766,7 +764,7 @@
         <v>719759</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -780,7 +778,7 @@
         <v>1494866</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -794,7 +792,7 @@
         <v>234670</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -808,7 +806,7 @@
         <v>303492</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -822,7 +820,7 @@
         <v>135667</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -832,11 +830,11 @@
       <c r="C12" s="5">
         <v>147663</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="11">
         <v>152135</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -850,7 +848,7 @@
         <v>311122</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75">
+    <row r="14" spans="1:4" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -864,7 +862,7 @@
         <v>424201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75">
+    <row r="15" spans="1:4" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -878,7 +876,7 @@
         <v>162642</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75">
+    <row r="16" spans="1:4" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -892,21 +890,6 @@
         <v>213652</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8">
-        <v>427374</v>
-      </c>
-      <c r="C17" s="9">
-        <v>5207429</v>
-      </c>
-      <c r="D17" s="10">
-        <v>5634803</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -924,53 +907,53 @@
       <selection activeCell="A23" sqref="A23:XFD67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
-    <col min="3" max="11" width="15.75" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.375" style="2"/>
+    <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="11" width="15.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="41.25" customHeight="1">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="2:11" ht="11.25" customHeight="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="2:11" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="2:11" ht="49.5">
       <c r="B4" s="3" t="s">
@@ -1484,7 +1467,7 @@
         <v>13326</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15">
+    <row r="20" spans="2:11">
       <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
@@ -1492,13 +1475,13 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="2:11" ht="15">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="2:11">
+      <c r="B21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1741,6 +1724,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
@@ -1749,15 +1741,6 @@
     <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1780,6 +1763,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99FF0089-49F0-40AB-BEB3-2B49B4DD8E31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59A775D0-79AD-403F-BC35-D07C8CC8BE35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1788,12 +1779,4 @@
     <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99FF0089-49F0-40AB-BEB3-2B49B4DD8E31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>